--- a/test-data/mega-menu-data.xlsx
+++ b/test-data/mega-menu-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mashkinaea/IdeaProjects/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C5F945-F815-AB4F-9B97-7912D5488A6A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4C69EC-2C54-3D4F-83C9-1C6A0BDF2770}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33560" yWindow="2200" windowWidth="28800" windowHeight="16700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="29">
   <si>
     <t>path</t>
   </si>
@@ -41,48 +41,21 @@
     <t>espanol/cancer/sobrellevar/sentimientos/hoja-informativa-estres</t>
   </si>
   <si>
-    <t>about-cancer/coping/feelings/relaxation/hpv-vaccine-presidents-cancer-panel-improving-uptake</t>
-  </si>
-  <si>
-    <t>about-cancer/coping/feelings/relaxation/vitamin-d-supplement-cancer-prevention</t>
-  </si>
-  <si>
     <t>espanol/noticias/comunicados-de-prensa/2018/oropharyngeal-hpv-cisplatin</t>
   </si>
   <si>
     <t>annual-report-nation-2018</t>
   </si>
   <si>
-    <t>global/contact</t>
-  </si>
-  <si>
     <t>publications/dictionaries/cancer-terms</t>
   </si>
   <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>about-website/sitemap</t>
-  </si>
-  <si>
-    <t>policies</t>
-  </si>
-  <si>
     <t>espanol</t>
   </si>
   <si>
     <t>espanol/publicaciones/diccionario</t>
   </si>
   <si>
-    <t>espanol/contactenos</t>
-  </si>
-  <si>
-    <t>espanol/acerca-sitio/mapa-sitio</t>
-  </si>
-  <si>
-    <t>espanol/politicas</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -129,6 +102,18 @@
   </si>
   <si>
     <t>espanol/cancer/sobrellevar/sentimientos</t>
+  </si>
+  <si>
+    <t>/research</t>
+  </si>
+  <si>
+    <t>/pediatric-adult-rare-tumor/grants-training</t>
+  </si>
+  <si>
+    <t>rare-brain-spine-tumor</t>
+  </si>
+  <si>
+    <t>rare-brain-spine-tumor/espanol</t>
   </si>
 </sst>
 </file>
@@ -178,9 +163,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -501,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -515,186 +499,158 @@
     <col min="4" max="4" width="65.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1">
+        <v>800</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1">
+        <v>800</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B4" s="1">
         <v>40</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="1">
         <v>800</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <v>40</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="1">
         <v>800</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1">
         <v>40</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="1">
         <v>800</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>40</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="1">
         <v>800</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
         <v>40</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C8" s="1">
         <v>800</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
         <v>40</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="1">
         <v>800</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2">
-        <v>800</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2">
-        <v>40</v>
-      </c>
-      <c r="C9" s="2">
-        <v>800</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1">
         <v>40</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>800</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
         <v>40</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>800</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2">
-        <v>40</v>
-      </c>
-      <c r="C12" s="2">
-        <v>800</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
-        <v>40</v>
-      </c>
-      <c r="C13" s="2">
-        <v>800</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>20</v>
+      <c r="D11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -705,10 +661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132D59C2-63AE-5242-9460-21C6669FC236}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -718,134 +674,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>29</v>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="4">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="4">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="4">
-        <v>5</v>
-      </c>
-    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3">
         <v>5</v>
       </c>
     </row>
@@ -856,128 +801,104 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD69525-9B70-0B41-860F-5564C3609FDC}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="58" customWidth="1"/>
     <col min="2" max="2" width="80.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>18</v>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
